--- a/imovel.xlsx
+++ b/imovel.xlsx
@@ -469,73 +469,48 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-52 m²</t>
+530 m²</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-2</t>
-        </is>
-      </c>
+6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R$ 270.000
-Cond. R$ 380 • IPTU R$ 85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Rua Ítalo Bordini</t>
-        </is>
-      </c>
+          <t>R$ 5.000.000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-604 m²</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-3</t>
-        </is>
-      </c>
+562 m²</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$ 11.800.000
-Cond. R$ 1.659 • IPTU R$ 873</t>
+          <t>R$ 285.000
+Cond. R$ 1.476 • IPTU R$ 195</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alameda Mamoré</t>
+          <t>Rua Alice Cintra Bormam</t>
         </is>
       </c>
     </row>
@@ -543,7 +518,7 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-60 m²</t>
+72 m²</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,13 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R$ 395.000
-Cond. R$ 120 • IPTU R$ 130</t>
+          <t>R$ 290.000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rua Marília</t>
+          <t>Rua Estrela Velha</t>
         </is>
       </c>
     </row>
@@ -580,99 +554,84 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-69 m²</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+208 m²</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$ 450.000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>R$ 100.000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rua Virtude Lopes de Freitas</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-75 m²</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+170 m²</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+4</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
 1</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-2</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>R$ 350.000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avenida Valentim Magalhães</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-43 m²</t>
+220 m²</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-1</t>
+3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1-2</t>
+2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 180.000
-Cond. R$ 430 • IPTU R$ 67</t>
+          <t>R$ 590.000
+IPTU R$ 590</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rua General Osório</t>
+          <t>Rua João Martins Claro</t>
         </is>
       </c>
     </row>
@@ -680,7 +639,7 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-100 m²</t>
+60 m²</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +651,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -703,13 +662,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$ 430.000
-Cond. R$ 180 • IPTU R$ 190</t>
+          <t>R$ 550.000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rua Álvaro Lins</t>
+          <t>Rua Clara</t>
         </is>
       </c>
     </row>
@@ -717,19 +675,19 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-60 m²</t>
+53 m²</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,13 +698,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 270.000
-Cond. R$ 217</t>
+          <t>R$ 78.201</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Avenida Presidente Kennedy</t>
+          <t>Quadra 5</t>
         </is>
       </c>
     </row>
@@ -754,35 +711,31 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-147 m²</t>
+51 m²</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-3</t>
-        </is>
-      </c>
+1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R$ 380.000</t>
+          <t>R$ 155.000
+IPTU R$ 1.857</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rua Bela Vista</t>
+          <t>Rua Honório Martiniano da Silva</t>
         </is>
       </c>
     </row>
@@ -790,7 +743,7 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-250 m²</t>
+86 m²</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -802,24 +755,25 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-5</t>
+2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R$ 1.700.000
-Cond. R$ 796 • IPTU R$ 178</t>
+          <t>R$ 310.000
+Cond. R$ 556 • IPTU R$ 103
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rua dos Cravos</t>
+          <t>Avenida Helvino Moraes</t>
         </is>
       </c>
     </row>
@@ -827,36 +781,21 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-30 m²</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+153 m²</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R$ 235.000
-Cond. R$ 350</t>
+          <t>R$ 160.000
+Cond. R$ 292 • IPTU R$ 300</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Avenida Braz Olaia Acosta</t>
+          <t>Rua Paschoal Jerônimo Fornazari</t>
         </is>
       </c>
     </row>
@@ -864,36 +803,30 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-88 m²</t>
+180 m²</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R$ 240.000
-Cond. R$ 370</t>
+          <t>R$ 95.407</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Avenida Doutor Antônio Alves Passig</t>
+          <t>Quadra 21</t>
         </is>
       </c>
     </row>
@@ -901,7 +834,7 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-55 m²</t>
+180 m²</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -913,24 +846,23 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 220.000
-IPTU R$ 356</t>
+          <t>R$ 790.000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rua Jorge dos Reis e Cunha</t>
+          <t>Rua Osvaldo Pegoretti</t>
         </is>
       </c>
     </row>
@@ -938,31 +870,20 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-144 m²</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
+360 m²</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>R$ 380.000
-IPTU R$ 1.100</t>
+          <t>R$ 143.900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rua Silvério Souto</t>
+          <t>Rua Augusto Maass</t>
         </is>
       </c>
     </row>
@@ -970,37 +891,21 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-109 m²</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-2</t>
-        </is>
-      </c>
+329 m²</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R$ 1.489.970
-Cond. R$ 1.600 • IPTU R$ 638
-Preço abaixo do mercado</t>
+          <t>R$ 298.000
+Cond. R$ 381 • IPTU R$ 500</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rua Dona Brígida</t>
+          <t>Avenida Elias Maluf</t>
         </is>
       </c>
     </row>
@@ -1008,36 +913,36 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-114 m²</t>
+152 m²</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1-3</t>
+3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-0-2</t>
+2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>R$ 200.000
-Cond. R$ 385</t>
+          <t>R$ 480.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rua General Osório</t>
+          <t>Rua Xangai</t>
         </is>
       </c>
     </row>
@@ -1045,58 +950,63 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-88 m²</t>
+100 m²</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 215.000
-Cond. R$ 380</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Avenida Doutor Antônio Alves Passig</t>
-        </is>
-      </c>
+          <t>R$ 199.900</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-567 m²</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+61 m²</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+1</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>R$ 191.124
-Cond. R$ 760 • IPTU R$ 1.000</t>
+          <t>R$ 330.000
+Cond. R$ 500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Estrada dos Pires</t>
+          <t>Rua Costa Lima</t>
         </is>
       </c>
     </row>
@@ -1104,35 +1014,36 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-213 m²</t>
+130 m²</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-4</t>
+3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R$ 410.000</t>
+          <t>R$ 1.449.970
+Cond. R$ 2.265 • IPTU R$ 555</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rua Antônio Ribeiro de Rezende</t>
+          <t>Rua Paraguaçu</t>
         </is>
       </c>
     </row>
@@ -1140,36 +1051,37 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-190 m²</t>
+130 m²</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-1</t>
+2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R$ 299.000
-IPTU R$ 81</t>
+          <t>R$ 355.000
+IPTU R$ 42
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Avenida Monteiro Lobato</t>
+          <t>Avenida Lyons</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1089,7 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-121 m²</t>
+180 m²</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1189,24 +1101,18 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R$ 370.000
-IPTU R$ 78</t>
+          <t>R$ 97.778</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rua General Osório</t>
+          <t>Quadra 19</t>
         </is>
       </c>
     </row>
@@ -1214,36 +1120,21 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-100 m²</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-2</t>
-        </is>
-      </c>
+250 m²</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R$ 220.000
-IPTU R$ 36</t>
+          <t>R$ 250.000
+IPTU R$ 500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rua Damas Ortiz</t>
+          <t>Rua Dorothy de Oliveira</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1142,7 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-89 m²</t>
+120 m²</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1263,24 +1154,25 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R$ 320.000
-Cond. R$ 500 • IPTU R$ 74</t>
+          <t>R$ 545.000
+Cond. R$ 1.633 • IPTU R$ 550
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rua Adalberto Pajuaba</t>
+          <t>Rua Frederico Guarinon</t>
         </is>
       </c>
     </row>
@@ -1288,13 +1180,13 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-114 m²</t>
+180 m²</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1311,12 +1203,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R$ 320.000</t>
+          <t>R$ 790.000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Avenida da Saudade</t>
+          <t>Rua Osvaldo Pegoretti</t>
         </is>
       </c>
     </row>
@@ -1324,36 +1216,21 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-76 m²</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1-2</t>
-        </is>
-      </c>
+1000 m²</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R$ 385.000
-Cond. R$ 350 • IPTU R$ 128</t>
+          <t>R$ 470.000
+Cond. R$ 600 • IPTU R$ 539</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rua Antônio Deloiágono</t>
+          <t>Rodovia João Leme dos Santos</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1238,7 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-140 m²</t>
+230 m²</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1373,7 +1250,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3</t>
+5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1384,12 +1261,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>R$ 450.000</t>
+          <t>R$ 650.000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rua Jácomo Natal Granzotto</t>
+          <t>Rua Vasco Fernandes Coutinho</t>
         </is>
       </c>
     </row>
@@ -1397,37 +1274,21 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-132 m²</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-2</t>
-        </is>
-      </c>
+169 m²</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>R$ 1.649.970
-Cond. R$ 2.323 • IPTU R$ 489
-Preço abaixo do mercado</t>
+          <t>R$ 285.000
+IPTU R$ 90</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Avenida Jurema</t>
+          <t>Rua Júlio Ribeiro</t>
         </is>
       </c>
     </row>
@@ -1435,35 +1296,35 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-180 m²</t>
+66 m²</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3</t>
+2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R$ 390.000</t>
+          <t>R$ 309.000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rua Gedeon Alves Feitosa</t>
+          <t>Rua Brasílio Machado</t>
         </is>
       </c>
     </row>
@@ -1471,63 +1332,57 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-100 m²</t>
+50 m²</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R$ 380.000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>R$ 240.000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Estrada Samuel Aizemberg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-1056 m²</t>
+385 m²</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-8</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-28</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A partir de R$ 38.000.000
-Cond. a partir de R$ 24.300 • IPTU R$ 19.000</t>
+          <t>R$ 280.000
+IPTU R$ 570</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rua dos Pinheiros</t>
+          <t>Avenida Gabriel Seme Cury</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1390,7 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-65 m²</t>
+110 m²</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1553,18 +1408,17 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R$ 575.000
-Cond. R$ 480 • IPTU R$ 50</t>
+          <t>R$ 455.000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rua Arujá</t>
+          <t>Rua RF-01</t>
         </is>
       </c>
     </row>
@@ -1572,35 +1426,36 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-190 m²</t>
+49 m²</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-5</t>
+1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R$ 1.490.000</t>
+          <t>R$ 200.000
+Cond. R$ 300 • IPTU R$ 500</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Estrada Velha Indaiatuba - Campinas</t>
+          <t>Avenida Fabril</t>
         </is>
       </c>
     </row>
@@ -1608,36 +1463,35 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-67 m²</t>
+109 m²</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-4</t>
+2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>R$ 210.000
-Cond. R$ 430</t>
+          <t>R$ 532.000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estrada da Fazenda Velha</t>
+          <t>Rua Gamboa</t>
         </is>
       </c>
     </row>
@@ -1645,36 +1499,20 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-60 m²</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+311 m²</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>R$ 220.000
-IPTU R$ 293</t>
+          <t>R$ 375.000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rua Francisco Rosaboni</t>
+          <t>Rua Antônio Mendes</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1520,7 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-139 m²</t>
+60 m²</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1694,23 +1532,24 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R$ 270.000</t>
+          <t>R$ 375.000
+Cond. R$ 450 • IPTU R$ 50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rua Avelino Hermes</t>
+          <t>Praça Demercindo Alves da Silva</t>
         </is>
       </c>
     </row>
@@ -1718,36 +1557,35 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-84 m²</t>
+100 m²</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2-3</t>
+2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1-2</t>
+1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R$ 400.000
-Cond. R$ 800</t>
+          <t>R$ 508.800</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rua Humaitá</t>
+          <t>Rua Baía Blanca</t>
         </is>
       </c>
     </row>
@@ -1755,36 +1593,36 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-70 m²</t>
+52 m²</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1-2</t>
+1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R$ 340.000
-Cond. R$ 330 • IPTU R$ 76</t>
+          <t>R$ 190.000
+Cond. R$ 250 • IPTU R$ 25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Estrada Municipal Francisco Alves Monteiro</t>
+          <t>Rua Seraphim Banietti</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1630,7 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-260 m²</t>
+480 m²</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1800,50 +1638,45 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>R$ 200.000
-Cond. R$ 500</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Rua Cassia Fernanda Coggo Martin</t>
-        </is>
-      </c>
+          <t>R$ 370.000
+Cond. R$ 1.125</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-55 m²</t>
+240 m²</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1-2</t>
+1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>R$ 210.000
-Cond. R$ 340 • IPTU R$ 41</t>
+          <t>R$ 350.000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Avenida Monteiro Lobato</t>
+          <t>Rua Júlio Verne</t>
         </is>
       </c>
     </row>
@@ -1851,10 +1684,15 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-33 m²</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+75 m²</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+2</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
@@ -1864,18 +1702,17 @@
       <c r="D41" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A partir de R$ 350.000
-Cond. a partir de R$ 479 • IPTU R$ 225</t>
+          <t>R$ 315.000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Avenida Marechal Rondon</t>
+          <t>Avenida Campinas</t>
         </is>
       </c>
     </row>
@@ -1883,19 +1720,19 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-65 m²</t>
+56 m²</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2-3</t>
+2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1-2</t>
+1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1906,13 +1743,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R$ 225.000
-Cond. R$ 450 • IPTU R$ 57</t>
+          <t>R$ 320.000
+Cond. R$ 581 • IPTU R$ 112</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rua Albino Gonçalves</t>
+          <t>Rua Xingu</t>
         </is>
       </c>
     </row>
@@ -1920,35 +1757,36 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-77 m²</t>
+236 m²</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R$ 362.000</t>
+          <t>R$ 1.190.000
+IPTU R$ 530</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rua Brasílio Machado</t>
+          <t>Rua Sousa Noschese</t>
         </is>
       </c>
     </row>
@@ -1956,13 +1794,13 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-95 m²</t>
+53 m²</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1974,18 +1812,18 @@
       <c r="D44" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R$ 994.980
-Cond. R$ 2.000 • IPTU R$ 610</t>
+          <t>R$ 425.000
+Cond. R$ 630 • IPTU R$ 129</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rua Guaraiúva</t>
+          <t>Rua Luzitânia</t>
         </is>
       </c>
     </row>
@@ -1993,35 +1831,20 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-48 m²</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+250 m²</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>R$ 370.800</t>
+          <t>R$ 120.000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Avenida Salgado Filho</t>
+          <t>Estrada Municipal dos Remédios</t>
         </is>
       </c>
     </row>
@@ -2029,30 +1852,37 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-40 m²</t>
+210 m²</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+2</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>R$ 280.000</t>
+          <t>R$ 500.000
+IPTU R$ 100
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rua Hercília</t>
+          <t>Rua Milton Barreto</t>
         </is>
       </c>
     </row>
@@ -2060,7 +1890,7 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-225 m²</t>
+47 m²</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2083,12 +1913,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R$ 76.705</t>
+          <t>R$ 201.200
+Cond. R$ 350</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Quadra 80</t>
+          <t>Avenida Protásio Alves</t>
         </is>
       </c>
     </row>
@@ -2096,7 +1927,7 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-69 m²</t>
+47 m²</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2108,24 +1939,24 @@
       <c r="C48" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 448.000
-Cond. R$ 400</t>
+          <t>R$ 185.000
+Cond. R$ 345 • IPTU R$ 59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rua José Faustino Cavalcanti</t>
+          <t>Rua Monte Alegre</t>
         </is>
       </c>
     </row>
@@ -2133,7 +1964,7 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-64 m²</t>
+280 m²</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2151,18 +1982,18 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>R$ 210.000
-Cond. R$ 350 • IPTU R$ 900</t>
+          <t>R$ 580.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Avenida Dona Albertina de Pina</t>
+          <t>Rua Alberto de Oliveira</t>
         </is>
       </c>
     </row>
@@ -2170,36 +2001,36 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-280 m²</t>
+53 m²</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-4</t>
+2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-4</t>
+2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>R$ 8.999.970
-Cond. R$ 4.400 • IPTU R$ 2.270</t>
+          <t>R$ 450.000
+IPTU R$ 85</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rua Ministro Gabriel de Rezende Passos</t>
+          <t>Rua Manicoré</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2038,7 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-109 m²</t>
+80 m²</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2230,14 +2061,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 1.489.990
-Cond. R$ 1.600 • IPTU R$ 638
+          <t>R$ 490.000
+Cond. R$ 80 • IPTU R$ 34
 Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rua Dona Brígida</t>
+          <t>Rua César de Meneses</t>
         </is>
       </c>
     </row>
@@ -2245,21 +2076,35 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-414 m²</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+57 m²</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+2</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>R$ 540.000
-Cond. R$ 900 • IPTU R$ 820</t>
+          <t>R$ 350.000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rua Professor Antonio Mendes Vinagre</t>
+          <t>Rua Antônio Saad</t>
         </is>
       </c>
     </row>
@@ -2267,19 +2112,19 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-45 m²</t>
+80 m²</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2290,13 +2135,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>R$ 190.000
-Cond. R$ 450</t>
+          <t>R$ 335.000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rua Oceano Pacífico</t>
+          <t>Rua Afonso Lopes</t>
         </is>
       </c>
     </row>
@@ -2304,35 +2148,21 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-70 m²</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-8</t>
-        </is>
-      </c>
+672 m²</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>R$ 350.000</t>
+          <t>R$ 390.000
+IPTU R$ 120</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rua Leopoldo Froes</t>
+          <t>Rua Doutor Wenceslau Botelho</t>
         </is>
       </c>
     </row>
@@ -2340,19 +2170,19 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-93 m²</t>
+109 m²</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2363,13 +2193,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R$ 360.000
-Cond. R$ 700</t>
+          <t>R$ 532.000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Avenida Antônio Machado Sant'Anna</t>
+          <t>Rua Gamboa</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2206,7 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-82 m²</t>
+63 m²</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2389,24 +2218,23 @@
       <c r="C56" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>R$ 220.000
-Cond. R$ 350</t>
+          <t>R$ 370.000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Avenida Monteiro Lobato</t>
+          <t>Rua Cananéia</t>
         </is>
       </c>
     </row>
@@ -2414,35 +2242,36 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-210 m²</t>
+231 m²</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-0-1</t>
+2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>R$ 65.921</t>
+          <t>R$ 420.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Quadra 80</t>
+          <t>Rua Expedicionário Teodoro Francisco Ribeiro</t>
         </is>
       </c>
     </row>
@@ -2450,36 +2279,36 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-40 m²</t>
+108 m²</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>R$ 245.000
-Cond. R$ 380</t>
+          <t>R$ 800.000
+Cond. R$ 1.000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Avenida Presidente Kennedy</t>
+          <t>Avenida São Paulo Paraná</t>
         </is>
       </c>
     </row>
@@ -2487,36 +2316,35 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-97 m²</t>
+44 m²</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>R$ 600.000
-Cond. R$ 1.100 • IPTU R$ 130</t>
+          <t>R$ 271.000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rua Voluntários da Pátria</t>
+          <t>Rua Brasílio Machado</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2352,7 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-88 m²</t>
+267 m²</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2536,24 +2364,24 @@
       <c r="C60" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R$ 380.000
-Cond. R$ 1 • IPTU R$ 100</t>
+          <t>R$ 600.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alameda José de Oliveira Guimarães</t>
+          <t>Rua Magalhães Barata</t>
         </is>
       </c>
     </row>
@@ -2561,20 +2389,36 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-360 m²</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+212 m²</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+1</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>R$ 215.000</t>
+          <t>R$ 580.000
+IPTU R$ 111</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rua Cristóvão Cardoso de Barros</t>
+          <t>Rua Rogério Giorgi</t>
         </is>
       </c>
     </row>
@@ -2582,20 +2426,36 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-1000 m²</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+217 m²</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+3</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>R$ 280.000</t>
+          <t>R$ 2.099.980
+Cond. R$ 3.654 • IPTU R$ 2.026</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rua Moacyr Corrêa</t>
+          <t>Rua Otávio Tarquínio de Sousa</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2463,7 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-49 m²</t>
+88 m²</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2621,17 +2481,17 @@
       <c r="D63" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-15</t>
+3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>R$ 212.000</t>
+          <t>R$ 680.000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rua Taquaras</t>
+          <t>Rua Buenos Aires</t>
         </is>
       </c>
     </row>
@@ -2639,36 +2499,36 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-65 m²</t>
+190 m²</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>R$ 290.000
-Cond. R$ 740</t>
+          <t>R$ 860.000
+IPTU R$ 110</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rua General Osório</t>
+          <t>Rua Atabasca</t>
         </is>
       </c>
     </row>
@@ -2676,37 +2536,31 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-90 m²</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
+35 m²</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>R$ 618.000
-Cond. R$ 185 • IPTU R$ 35
-Preço abaixo do mercado</t>
+          <t>A partir de R$ 210.000
+Cond. a partir de R$ 994 • IPTU R$ 190</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rua Frei Caneca</t>
+          <t>Rua Conceição</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2568,7 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-107 m²</t>
+150 m²</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2726,18 +2580,24 @@
       <c r="C66" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+3</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>R$ 94.815</t>
+          <t>R$ 691.000
+IPTU R$ 100</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Quadra 06</t>
+          <t>Rua Antônio Munhoz</t>
         </is>
       </c>
     </row>
@@ -2745,13 +2605,13 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-184 m²</t>
+270 m²</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2768,12 +2628,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>R$ 600.000</t>
+          <t>R$ 355.000
+IPTU R$ 240
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rua Sílvio Romero</t>
+          <t>Rua Romano Tognato</t>
         </is>
       </c>
     </row>
@@ -2781,36 +2643,36 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-220 m²</t>
+134 m²</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-4</t>
+3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-4</t>
+2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-4</t>
+2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R$ 2.349.980
-Cond. R$ 3.200 • IPTU R$ 1.970</t>
+          <t>R$ 530.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rua Gabriele D'Annunzio</t>
+          <t>Rua Oslo</t>
         </is>
       </c>
     </row>
@@ -2818,35 +2680,37 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-118 m²</t>
+86 m²</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>R$ 390.000</t>
+          <t>R$ 340.000
+Cond. R$ 313 • IPTU R$ 1.039
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rua Henrique Dumont</t>
+          <t>Avenida Ministro Oswaldo Aranha</t>
         </is>
       </c>
     </row>
@@ -2854,48 +2718,73 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-32 m²</t>
+284 m²</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-1</t>
+3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+4</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>R$ 102.500</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>R$ 1.590.000
+IPTU R$ 1.900
+Preço abaixo do mercado</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Avenida dos Lagos</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-1644 m²</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+110 m²</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+2</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>R$ 904.458
-Cond. R$ 1.200 • IPTU R$ 1.000</t>
+          <t>R$ 2.100.000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Avenida Isaura Roque Quércia</t>
+          <t>Rua Bom Sucesso</t>
         </is>
       </c>
     </row>
@@ -2903,36 +2792,35 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-73 m²</t>
+70 m²</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>R$ 280.000
-Cond. R$ 310 • IPTU R$ 57</t>
+          <t>R$ 480.000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Avenida Coronel Fernando Ferreira Leite</t>
+          <t>Rua Alencastro</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2828,7 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-61 m²</t>
+173-192 m²</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2952,23 +2840,24 @@
       <c r="C73" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 500.000</t>
+          <t>R$ 560.000
+IPTU R$ 70</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rua João Vieira Carneiro</t>
+          <t>Rua Manoel Ribeiro de Andrade</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2865,7 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-250 m²</t>
+564 m²</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2984,13 +2873,13 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>R$ 260.000
-IPTU R$ 180</t>
+          <t>R$ 535.000
+IPTU R$ 68</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rua Boa Esperança</t>
+          <t>Rua Emílio Terciani</t>
         </is>
       </c>
     </row>
@@ -2998,36 +2887,37 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-80 m²</t>
+405 m²</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 510.000
-Cond. R$ 700 • IPTU R$ 56</t>
+          <t>R$ 1.290.000
+IPTU R$ 1.140
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rua Paranapanema</t>
+          <t>Rua Doutor José Maria Whitaker</t>
         </is>
       </c>
     </row>
@@ -3035,7 +2925,7 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-100 m²</t>
+126 m²</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3047,28 +2937,31 @@
       <c r="C76" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>R$ 230.000
-IPTU R$ 50</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>R$ 640.000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Rua Primo Bruno Pezzolo</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-180 m²</t>
+84 m²</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3091,13 +2984,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>R$ 210.000
-Preço abaixo do mercado</t>
+          <t>R$ 797.760</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rua Arthur Edmur Pimentel</t>
+          <t>Avenida Alberto Augusto Alves</t>
         </is>
       </c>
     </row>
@@ -3105,35 +2997,20 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-56 m²</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+477 m²</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>R$ 375.000</t>
+          <t>R$ 185.000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rua Ceará</t>
+          <t>Rua Quintino Bocaiúva</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3018,7 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-115 m²</t>
+152 m²</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3153,23 +3030,25 @@
       <c r="C79" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>R$ 330.000</t>
+          <t>R$ 640.000
+Cond. R$ 100
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avenida da Saudade</t>
+          <t>Rua Sete de Abril</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3056,7 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-64-70 m²</t>
+59 m²</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3189,23 +3068,19 @@
       <c r="C80" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1-2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1-2</t>
-        </is>
-      </c>
+2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>R$ 387.718</t>
+          <t>R$ 190.000
+Cond. R$ 350 • IPTU R$ 90</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rua Dallas</t>
+          <t>Rua Coronel Vicente</t>
         </is>
       </c>
     </row>
@@ -3213,36 +3088,36 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-200 m²</t>
+43 m²</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-4</t>
+2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3</t>
+1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>R$ 495.000
-IPTU R$ 209</t>
+          <t>R$ 155.000
+Cond. R$ 250 • IPTU R$ 24</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rua Rodesia</t>
+          <t>Rua Geraldo Sampaio Sobrinho</t>
         </is>
       </c>
     </row>
@@ -3250,19 +3125,19 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-65 m²</t>
+198 m²</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3273,13 +3148,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>R$ 395.000
-Cond. R$ 557 • IPTU R$ 83</t>
+          <t>R$ 862.000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rua Virgulino de Oliveira</t>
+          <t>Rua Lorena</t>
         </is>
       </c>
     </row>
@@ -3287,35 +3161,20 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-45 m²</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-2</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-4</t>
-        </is>
-      </c>
+255 m²</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>R$ 170.000</t>
+          <t>R$ 500.000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rua Nelson Garcia</t>
+          <t>Rua Coronel José Pedro de Oliveira</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3182,7 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-48 m²</t>
+51 m²</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3346,13 +3205,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>R$ 185.000
-Cond. R$ 478 • IPTU R$ 67</t>
+          <t>R$ 380.000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Avenida Dois Córregos</t>
+          <t>Avenida Elísio Teixeira Leite</t>
         </is>
       </c>
     </row>
@@ -3360,13 +3218,13 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-50 m²</t>
+106 m²</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3375,15 +3233,21 @@
 1</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+1</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>R$ 85.477</t>
+          <t>R$ 500.000
+IPTU R$ 98</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>QA 3</t>
+          <t>Avenida Doutor Carlos de Campos</t>
         </is>
       </c>
     </row>
@@ -3391,36 +3255,35 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-181 m²</t>
+88 m²</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-4</t>
+2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-7</t>
+1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>R$ 1.210.934
-Cond. R$ 400</t>
+          <t>R$ 380.000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Avenida Pedro Luiz Ribeiro</t>
+          <t>Rua Cangioca</t>
         </is>
       </c>
     </row>
@@ -3428,13 +3291,13 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-120 m²</t>
+53 m²</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3446,18 +3309,17 @@
       <c r="D87" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>R$ 325.000
-IPTU R$ 60</t>
+          <t>R$ 54.930</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rua Carlos Eduardo Santagnello</t>
+          <t>Quadra 5</t>
         </is>
       </c>
     </row>
@@ -3465,37 +3327,35 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-136 m²</t>
+164 m²</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>R$ 180.000
-IPTU R$ 65
-Preço abaixo do mercado</t>
+          <t>R$ 1.166.000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rua Aparecido Antônio dos Santos</t>
+          <t>Rua Vinte e Três de Maio</t>
         </is>
       </c>
     </row>
@@ -3503,49 +3363,45 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-45 m²</t>
+109 m²</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>R$ 60.340</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Quadra 35</t>
-        </is>
-      </c>
+          <t>R$ 360.000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-52 m²</t>
+300 m²</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3557,17 +3413,18 @@
       <c r="D90" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>R$ 599.000</t>
+          <t>R$ 500.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Praça Tenório de Aguiar</t>
+          <t>Rua José Marcondes Quadros</t>
         </is>
       </c>
     </row>
@@ -3575,13 +3432,13 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-73 m²</t>
+84 m²</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3593,17 +3450,18 @@
       <c r="D91" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>R$ 419.900</t>
+          <t>R$ 1.599.880
+Cond. R$ 699 • IPTU R$ 399</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Avenida Sorocabana</t>
+          <t>Rua José Augusto Penteado</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3469,7 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-65 m²</t>
+112 m²</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3623,18 +3481,24 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+1</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>R$ 130.000</t>
+          <t>R$ 568.000
+Cond. R$ 130</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rua Álvares de Azevedo</t>
+          <t>Rua Armida</t>
         </is>
       </c>
     </row>
@@ -3642,36 +3506,35 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-70 m²</t>
+150 m²</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+4</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+4</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>R$ 210.000
-Cond. R$ 180 • IPTU R$ 45</t>
+          <t>R$ 1.050.000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Avenida Tanabi</t>
+          <t>Rua Sud Menucci</t>
         </is>
       </c>
     </row>
@@ -3679,36 +3542,30 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-130 m²</t>
+192 m²</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3-4</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Quantidade de vagas de garagem
-1</t>
-        </is>
-      </c>
+3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>R$ 560.000
-Cond. R$ 560.000</t>
+          <t>R$ 799.000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rua Saldanha Marinho</t>
+          <t>Rua Arthur Piske</t>
         </is>
       </c>
     </row>
@@ -3716,19 +3573,19 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-70 m²</t>
+60 m²</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3739,13 +3596,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>R$ 410.000
-Cond. R$ 400 • IPTU R$ 75</t>
+          <t>R$ 380.000
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rua Santa Rita do Passa Quatro</t>
+          <t>Travessa João Mendes</t>
         </is>
       </c>
     </row>
@@ -3753,36 +3610,36 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-50 m²</t>
+92 m²</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>R$ 165.000
-Cond. R$ 250</t>
+          <t>R$ 1.400.000
+Cond. R$ 850 • IPTU R$ 280</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rua Pedro Castro Martins</t>
+          <t>Rua Bento Branco de Andrade Filho</t>
         </is>
       </c>
     </row>
@@ -3790,36 +3647,30 @@
       <c r="A97" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-149 m²</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
+1850 m²</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-3</t>
+10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-2</t>
+80</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>R$ 790.000
-Cond. R$ 300</t>
+          <t>A partir de R$ 35.000.000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rua Contorno</t>
+          <t>Avenida Francisco Matarazzo</t>
         </is>
       </c>
     </row>
@@ -3827,35 +3678,35 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-72 m²</t>
+177 m²</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+3</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>R$ 290.000</t>
+          <t>R$ 550.000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rua Estrela Velha</t>
+          <t>Avenida Sorocaba</t>
         </is>
       </c>
     </row>
@@ -3863,20 +3714,36 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-20000 m²</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+85 m²</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Quantidade de quartos
+2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Quantidade de banheiros
+1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Quantidade de vagas de garagem
+1</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>R$ 150.000</t>
+          <t>R$ 490.000
+Cond. R$ 753 • IPTU R$ 453</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rua 1 Chácara 106A Conjunto C</t>
+          <t>Rua Guaranis</t>
         </is>
       </c>
     </row>
@@ -3884,19 +3751,19 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-67 m²</t>
+65 m²</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3907,23 +3774,27 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>R$ 280.000
-Cond. R$ 387 • IPTU R$ 54</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>R$ 1.444.980
+Cond. R$ 1.050 • IPTU R$ 500</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Avenida dos Imarés</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-61 m²</t>
+154 m²</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3935,17 +3806,18 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+4</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>R$ 375.000</t>
+          <t>R$ 800.000
+IPTU R$ 214</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rua Oswaldo Evaristo da Costa</t>
+          <t>Rua Apolo</t>
         </is>
       </c>
     </row>
@@ -3953,35 +3825,36 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-128 m²</t>
+360 m²</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+4</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+8</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>R$ 250.000</t>
+          <t>R$ 2.350.000
+IPTU R$ 1.375</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Avenida da Saudade</t>
+          <t>Rua República do Iraque</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3862,7 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-52 m²</t>
+70 m²</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4012,12 +3885,13 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>R$ 79.939</t>
+          <t>R$ 620.000
+Cond. R$ 740 • IPTU R$ 200</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Quadra 34</t>
+          <t>Rua Sete de Outubro</t>
         </is>
       </c>
     </row>
@@ -4025,19 +3899,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-140 m²</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Quantidade de quartos
-3</t>
-        </is>
-      </c>
+37 m²</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4048,12 +3917,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>R$ 375.000</t>
+          <t>R$ 223.000
+Cond. R$ 400</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rua Debélis</t>
+          <t>Rua Dona Elisa Fláquer</t>
         </is>
       </c>
     </row>
@@ -4061,35 +3931,36 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-83 m²</t>
+397 m²</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-3</t>
+1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-2</t>
+8</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+7</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>R$ 445.000</t>
+          <t>R$ 1.300.000
+IPTU R$ 586</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rua Milão</t>
+          <t>Rua Albertina Nascimento</t>
         </is>
       </c>
     </row>
@@ -4097,36 +3968,37 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>Tamanho do imóvel
-60 m²</t>
+289 m²</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Quantidade de quartos
-2</t>
+3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>Quantidade de banheiros
-1</t>
+3</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Quantidade de vagas de garagem
-1</t>
+2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>R$ 179.000
-Cond. R$ 540 • IPTU R$ 109</t>
+          <t>R$ 498.000
+IPTU R$ 1.356
+Preço abaixo do mercado</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Rua Lopes da Cunha</t>
+          <t>Rua São Luiz Gonzaga</t>
         </is>
       </c>
     </row>
